--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf7-Fgfr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf7-Fgfr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>Fgf7</t>
+  </si>
+  <si>
+    <t>Fgfr3</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Fgf7</t>
-  </si>
-  <si>
-    <t>Fgfr3</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>18.32032066666666</v>
+        <v>0.025512</v>
       </c>
       <c r="H2">
-        <v>54.96096199999999</v>
+        <v>0.07653600000000001</v>
       </c>
       <c r="I2">
-        <v>0.9393883922888365</v>
+        <v>0.001390615539972402</v>
       </c>
       <c r="J2">
-        <v>0.9570930138987986</v>
+        <v>0.001390615539972402</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.495057333333333</v>
+        <v>2.330840333333333</v>
       </c>
       <c r="N2">
-        <v>16.485172</v>
+        <v>6.992521</v>
       </c>
       <c r="O2">
-        <v>0.8161989011161211</v>
+        <v>0.6715345129768794</v>
       </c>
       <c r="P2">
-        <v>0.8403205285996808</v>
+        <v>0.7003397275969581</v>
       </c>
       <c r="Q2">
-        <v>100.6712124283849</v>
+        <v>0.059464398584</v>
       </c>
       <c r="R2">
-        <v>906.0409118554638</v>
+        <v>0.535179587256</v>
       </c>
       <c r="S2">
-        <v>0.7667277735073881</v>
+        <v>0.0009338463293734474</v>
       </c>
       <c r="T2">
-        <v>0.8042649073585001</v>
+        <v>0.000973903308456369</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>18.32032066666666</v>
+        <v>0.025512</v>
       </c>
       <c r="H3">
-        <v>54.96096199999999</v>
+        <v>0.07653600000000001</v>
       </c>
       <c r="I3">
-        <v>0.9393883922888365</v>
+        <v>0.001390615539972402</v>
       </c>
       <c r="J3">
-        <v>0.9570930138987986</v>
+        <v>0.001390615539972402</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>1.972998</v>
       </c>
       <c r="O3">
-        <v>0.09768528951377062</v>
+        <v>0.1894790521235985</v>
       </c>
       <c r="P3">
-        <v>0.1005722428790014</v>
+        <v>0.1976066831789769</v>
       </c>
       <c r="Q3">
-        <v>12.048652011564</v>
+        <v>0.016778374992</v>
       </c>
       <c r="R3">
-        <v>108.437868104076</v>
+        <v>0.151005374928</v>
       </c>
       <c r="S3">
-        <v>0.09176442706661052</v>
+        <v>0.0002634925143823169</v>
       </c>
       <c r="T3">
-        <v>0.09625699105162543</v>
+        <v>0.0002747949244310885</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>18.32032066666666</v>
+        <v>0.025512</v>
       </c>
       <c r="H4">
-        <v>54.96096199999999</v>
+        <v>0.07653600000000001</v>
       </c>
       <c r="I4">
-        <v>0.9393883922888365</v>
+        <v>0.001390615539972402</v>
       </c>
       <c r="J4">
-        <v>0.9570930138987986</v>
+        <v>0.001390615539972402</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -679,90 +679,90 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5797745</v>
+        <v>0.42828</v>
       </c>
       <c r="N4">
-        <v>1.159549</v>
+        <v>0.85656</v>
       </c>
       <c r="O4">
-        <v>0.08611580937010824</v>
+        <v>0.123391035029171</v>
       </c>
       <c r="P4">
-        <v>0.0591072285213179</v>
+        <v>0.08578923067523865</v>
       </c>
       <c r="Q4">
-        <v>10.62165475435633</v>
+        <v>0.01092627936</v>
       </c>
       <c r="R4">
-        <v>63.72992852613799</v>
+        <v>0.06555767616000001</v>
       </c>
       <c r="S4">
-        <v>0.0808961917148379</v>
+        <v>0.0001715894908048442</v>
       </c>
       <c r="T4">
-        <v>0.05657111548867318</v>
+        <v>0.000119299837339264</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>1.082285</v>
+        <v>0.025512</v>
       </c>
       <c r="H5">
-        <v>2.16457</v>
+        <v>0.07653600000000001</v>
       </c>
       <c r="I5">
-        <v>0.05549498748666318</v>
+        <v>0.001390615539972402</v>
       </c>
       <c r="J5">
-        <v>0.03769393310646423</v>
+        <v>0.001390615539972402</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>5.495057333333333</v>
+        <v>0.05413033333333334</v>
       </c>
       <c r="N5">
-        <v>16.485172</v>
+        <v>0.162391</v>
       </c>
       <c r="O5">
-        <v>0.8161989011161211</v>
+        <v>0.01559539987035126</v>
       </c>
       <c r="P5">
-        <v>0.8403205285996808</v>
+        <v>0.01626435854882633</v>
       </c>
       <c r="Q5">
-        <v>5.947218126006666</v>
+        <v>0.001380973064</v>
       </c>
       <c r="R5">
-        <v>35.68330875603999</v>
+        <v>0.012428757576</v>
       </c>
       <c r="S5">
-        <v>0.04529494780406738</v>
+        <v>2.168720541179404E-05</v>
       </c>
       <c r="T5">
-        <v>0.03167498579302503</v>
+        <v>2.261746974568088E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,31 +770,31 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.082285</v>
+        <v>18.32032066666667</v>
       </c>
       <c r="H6">
-        <v>2.16457</v>
+        <v>54.960962</v>
       </c>
       <c r="I6">
-        <v>0.05549498748666318</v>
+        <v>0.9986093844600277</v>
       </c>
       <c r="J6">
-        <v>0.03769393310646423</v>
+        <v>0.9986093844600277</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.657666</v>
+        <v>2.330840333333333</v>
       </c>
       <c r="N6">
-        <v>1.972998</v>
+        <v>6.992521</v>
       </c>
       <c r="O6">
-        <v>0.09768528951377062</v>
+        <v>0.6715345129768794</v>
       </c>
       <c r="P6">
-        <v>0.1005722428790014</v>
+        <v>0.7003397275969581</v>
       </c>
       <c r="Q6">
-        <v>0.7117820468099999</v>
+        <v>42.70174232946689</v>
       </c>
       <c r="R6">
-        <v>4.27069228086</v>
+        <v>384.315680965202</v>
       </c>
       <c r="S6">
-        <v>0.00542104391919777</v>
+        <v>0.6706006666475059</v>
       </c>
       <c r="T6">
-        <v>0.003790963395448152</v>
+        <v>0.6993658242885017</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,247 +832,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.082285</v>
+        <v>18.32032066666667</v>
       </c>
       <c r="H7">
-        <v>2.16457</v>
+        <v>54.960962</v>
       </c>
       <c r="I7">
-        <v>0.05549498748666318</v>
+        <v>0.9986093844600277</v>
       </c>
       <c r="J7">
-        <v>0.03769393310646423</v>
+        <v>0.9986093844600277</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.5797745</v>
+        <v>0.657666</v>
       </c>
       <c r="N7">
-        <v>1.159549</v>
+        <v>1.972998</v>
       </c>
       <c r="O7">
-        <v>0.08611580937010824</v>
+        <v>0.1894790521235985</v>
       </c>
       <c r="P7">
-        <v>0.0591072285213179</v>
+        <v>0.1976066831789769</v>
       </c>
       <c r="Q7">
-        <v>0.6274812447324999</v>
+        <v>12.048652011564</v>
       </c>
       <c r="R7">
-        <v>2.50992497893</v>
+        <v>108.437868104076</v>
       </c>
       <c r="S7">
-        <v>0.004778995763398028</v>
+        <v>0.1892155596092162</v>
       </c>
       <c r="T7">
-        <v>0.002227983917991052</v>
+        <v>0.1973318882545459</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>24</v>
       </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.09978633333333335</v>
+        <v>18.32032066666667</v>
       </c>
       <c r="H8">
-        <v>0.299359</v>
+        <v>54.960962</v>
       </c>
       <c r="I8">
-        <v>0.005116620224500326</v>
+        <v>0.9986093844600277</v>
       </c>
       <c r="J8">
-        <v>0.005213052994737074</v>
+        <v>0.9986093844600277</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.495057333333333</v>
+        <v>0.42828</v>
       </c>
       <c r="N8">
-        <v>16.485172</v>
+        <v>0.85656</v>
       </c>
       <c r="O8">
-        <v>0.8161989011161211</v>
+        <v>0.123391035029171</v>
       </c>
       <c r="P8">
-        <v>0.8403205285996808</v>
+        <v>0.08578923067523865</v>
       </c>
       <c r="Q8">
-        <v>0.5483316227497778</v>
+        <v>7.84622693512</v>
       </c>
       <c r="R8">
-        <v>4.934984604748</v>
+        <v>47.07736161072</v>
       </c>
       <c r="S8">
-        <v>0.004176179804665687</v>
+        <v>0.1232194455383661</v>
       </c>
       <c r="T8">
-        <v>0.004380635448155607</v>
+        <v>0.08566993083789939</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>18.32032066666667</v>
+      </c>
+      <c r="H9">
+        <v>54.960962</v>
+      </c>
+      <c r="I9">
+        <v>0.9986093844600277</v>
+      </c>
+      <c r="J9">
+        <v>0.9986093844600277</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G9">
-        <v>0.09978633333333335</v>
-      </c>
-      <c r="H9">
-        <v>0.299359</v>
-      </c>
-      <c r="I9">
-        <v>0.005116620224500326</v>
-      </c>
-      <c r="J9">
-        <v>0.005213052994737074</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
       <c r="M9">
-        <v>0.657666</v>
+        <v>0.05413033333333334</v>
       </c>
       <c r="N9">
-        <v>1.972998</v>
+        <v>0.162391</v>
       </c>
       <c r="O9">
-        <v>0.09768528951377062</v>
+        <v>0.01559539987035126</v>
       </c>
       <c r="P9">
-        <v>0.1005722428790014</v>
+        <v>0.01626435854882633</v>
       </c>
       <c r="Q9">
-        <v>0.06562607869800001</v>
+        <v>0.9916850644602223</v>
       </c>
       <c r="R9">
-        <v>0.590634708282</v>
+        <v>8.925165580142</v>
       </c>
       <c r="S9">
-        <v>0.0004998185279623283</v>
+        <v>0.01557371266493946</v>
       </c>
       <c r="T9">
-        <v>0.0005242884319278026</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.09978633333333335</v>
-      </c>
-      <c r="H10">
-        <v>0.299359</v>
-      </c>
-      <c r="I10">
-        <v>0.005116620224500326</v>
-      </c>
-      <c r="J10">
-        <v>0.005213052994737074</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.5797745</v>
-      </c>
-      <c r="N10">
-        <v>1.159549</v>
-      </c>
-      <c r="O10">
-        <v>0.08611580937010824</v>
-      </c>
-      <c r="P10">
-        <v>0.0591072285213179</v>
-      </c>
-      <c r="Q10">
-        <v>0.05785357151516667</v>
-      </c>
-      <c r="R10">
-        <v>0.347121429091</v>
-      </c>
-      <c r="S10">
-        <v>0.0004406218918723105</v>
-      </c>
-      <c r="T10">
-        <v>0.0003081291146536649</v>
+        <v>0.01624174107908065</v>
       </c>
     </row>
   </sheetData>
